--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130734182</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>130734186</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>130741286</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>130734153</v>
       </c>
       <c r="B5" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>130734193</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>130741319</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>130734175</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>130734156</v>
       </c>
       <c r="B9" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130741302</v>
+        <v>130734145</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1724,16 +1724,24 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>443997</v>
+        <v>443967</v>
       </c>
       <c r="R10" t="n">
-        <v>7053008</v>
+        <v>7053469</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1770,7 +1778,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1781,26 +1789,56 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog.</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130741291</v>
+        <v>130741302</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1832,10 +1870,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>443794</v>
+        <v>443997</v>
       </c>
       <c r="R11" t="n">
-        <v>7053002</v>
+        <v>7053008</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1872,7 +1910,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1899,10 +1937,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130734145</v>
+        <v>130741291</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1928,24 +1966,16 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>443967</v>
+        <v>443794</v>
       </c>
       <c r="R12" t="n">
-        <v>7053469</v>
+        <v>7053002</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1982,7 +2012,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1993,46 +2023,16 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog.</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
         <v>130734180</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>130734170</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>130734164</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130741320</v>
+        <v>130741279</v>
       </c>
       <c r="B16" t="n">
-        <v>89189</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2438,21 +2438,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>444326</v>
+        <v>444007</v>
       </c>
       <c r="R16" t="n">
-        <v>7053588</v>
+        <v>7053457</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2498,6 +2498,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2524,10 +2529,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130741279</v>
+        <v>130741320</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>89193</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2535,21 +2540,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2559,10 +2564,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444007</v>
+        <v>444326</v>
       </c>
       <c r="R17" t="n">
-        <v>7053457</v>
+        <v>7053588</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2595,11 +2600,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2629,7 +2629,7 @@
         <v>130741317</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>130734190</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>130734177</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>130734192</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>130741284</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130734162</v>
+        <v>130741285</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3244,37 +3244,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>444375</v>
+        <v>443963</v>
       </c>
       <c r="R23" t="n">
-        <v>7054118</v>
+        <v>7052972</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3309,60 +3306,39 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130741314</v>
+        <v>130741282</v>
       </c>
       <c r="B24" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3370,19 +3346,23 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3390,10 +3370,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>444416</v>
+        <v>443897</v>
       </c>
       <c r="R24" t="n">
-        <v>7053728</v>
+        <v>7052981</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3426,6 +3406,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3452,10 +3437,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130734165</v>
+        <v>130741297</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3463,37 +3448,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>444343</v>
+        <v>443871</v>
       </c>
       <c r="R25" t="n">
-        <v>7054057</v>
+        <v>7052942</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3530,7 +3512,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3539,54 +3521,28 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130734185</v>
+        <v>130734150</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>80349</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3594,26 +3550,30 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3621,10 +3581,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>444157</v>
+        <v>444358</v>
       </c>
       <c r="R26" t="n">
-        <v>7053507</v>
+        <v>7054049</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3661,7 +3621,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3679,24 +3639,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3714,10 +3679,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130741297</v>
+        <v>130734162</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3725,34 +3690,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>443871</v>
+        <v>444375</v>
       </c>
       <c r="R27" t="n">
-        <v>7052942</v>
+        <v>7054118</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3787,39 +3755,60 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130741282</v>
+        <v>130741314</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3827,23 +3816,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3851,10 +3836,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>443897</v>
+        <v>444416</v>
       </c>
       <c r="R28" t="n">
-        <v>7052981</v>
+        <v>7053728</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3887,11 +3872,6 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3918,10 +3898,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130741285</v>
+        <v>130734165</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3929,34 +3909,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>443963</v>
+        <v>444343</v>
       </c>
       <c r="R29" t="n">
-        <v>7052972</v>
+        <v>7054057</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3993,7 +3976,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4002,28 +3985,54 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130734150</v>
+        <v>130734185</v>
       </c>
       <c r="B30" t="n">
-        <v>80345</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4031,30 +4040,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4062,10 +4067,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>444358</v>
+        <v>444157</v>
       </c>
       <c r="R30" t="n">
-        <v>7054049</v>
+        <v>7053507</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4102,7 +4107,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4120,29 +4125,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130741290</v>
+        <v>130734181</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,42 +4171,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>444005</v>
+        <v>443859</v>
       </c>
       <c r="R31" t="n">
-        <v>7053074</v>
+        <v>7053310</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4243,7 +4238,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Bohål ca 3 m upp i granhögstubbe</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4252,28 +4247,54 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130734181</v>
+        <v>130734178</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4308,10 +4329,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>443859</v>
+        <v>443988</v>
       </c>
       <c r="R32" t="n">
-        <v>7053310</v>
+        <v>7053189</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4348,7 +4369,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>På gammal gran i luckig äldre granskog.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4401,10 +4422,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130734178</v>
+        <v>130741313</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4412,37 +4433,30 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>443988</v>
+        <v>443985</v>
       </c>
       <c r="R33" t="n">
-        <v>7053189</v>
+        <v>7052983</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4477,65 +4491,34 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På gammal gran i luckig äldre granskog.</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130741313</v>
+        <v>130741290</v>
       </c>
       <c r="B34" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4543,30 +4526,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>443985</v>
+        <v>444005</v>
       </c>
       <c r="R34" t="n">
-        <v>7052983</v>
+        <v>7053074</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4599,6 +4594,11 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Bohål ca 3 m upp i granhögstubbe</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4628,7 +4628,7 @@
         <v>130734174</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>130734189</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>130734176</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>130741289</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>130741294</v>
       </c>
       <c r="B39" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>130741318</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>130734173</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130741292</v>
+        <v>130741295</v>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>443750</v>
+        <v>443845</v>
       </c>
       <c r="R42" t="n">
-        <v>7052993</v>
+        <v>7052918</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5560,7 +5560,7 @@
         <v>130741301</v>
       </c>
       <c r="B43" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130741295</v>
+        <v>130741292</v>
       </c>
       <c r="B44" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>443845</v>
+        <v>443750</v>
       </c>
       <c r="R44" t="n">
-        <v>7052918</v>
+        <v>7052993</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5764,7 +5764,7 @@
         <v>130734144</v>
       </c>
       <c r="B45" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>130734147</v>
       </c>
       <c r="B46" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>130741281</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>130734157</v>
       </c>
       <c r="B48" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130741288</v>
+        <v>130734146</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6298,16 +6298,24 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>443996</v>
+        <v>443949</v>
       </c>
       <c r="R49" t="n">
-        <v>7053048</v>
+        <v>7053197</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6344,7 +6352,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6355,26 +6363,51 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130741299</v>
+        <v>130734148</v>
       </c>
       <c r="B50" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6400,16 +6433,24 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>443972</v>
+        <v>444153</v>
       </c>
       <c r="R50" t="n">
-        <v>7052967</v>
+        <v>7053496</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6446,7 +6487,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6457,26 +6498,51 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130734148</v>
+        <v>130741288</v>
       </c>
       <c r="B51" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6502,24 +6568,16 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>444153</v>
+        <v>443996</v>
       </c>
       <c r="R51" t="n">
-        <v>7053496</v>
+        <v>7053048</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6556,7 +6614,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6567,51 +6625,26 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130734146</v>
+        <v>130741299</v>
       </c>
       <c r="B52" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6637,24 +6670,16 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>443949</v>
+        <v>443972</v>
       </c>
       <c r="R52" t="n">
-        <v>7053197</v>
+        <v>7052967</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6691,7 +6716,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6702,51 +6727,26 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130734167</v>
+        <v>130741293</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6754,37 +6754,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>444319</v>
+        <v>443827</v>
       </c>
       <c r="R53" t="n">
-        <v>7054017</v>
+        <v>7052932</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6821,7 +6818,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6830,54 +6827,28 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130741311</v>
+        <v>130734167</v>
       </c>
       <c r="B54" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6885,30 +6856,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>443991</v>
+        <v>444319</v>
       </c>
       <c r="R54" t="n">
-        <v>7052955</v>
+        <v>7054017</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6943,34 +6921,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741316</v>
+        <v>130741311</v>
       </c>
       <c r="B55" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6978,23 +6987,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7002,10 +7007,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444000</v>
+        <v>443991</v>
       </c>
       <c r="R55" t="n">
-        <v>7053558</v>
+        <v>7052955</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7038,11 +7043,6 @@
       <c r="AA55" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7069,10 +7069,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741293</v>
+        <v>130741316</v>
       </c>
       <c r="B56" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7080,21 +7080,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>443827</v>
+        <v>444000</v>
       </c>
       <c r="R56" t="n">
-        <v>7052932</v>
+        <v>7053558</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7174,7 +7174,7 @@
         <v>130741310</v>
       </c>
       <c r="B57" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>130741309</v>
       </c>
       <c r="B58" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>130734171</v>
       </c>
       <c r="B59" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130741287</v>
+        <v>130741298</v>
       </c>
       <c r="B60" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7523,10 +7523,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444000</v>
+        <v>443946</v>
       </c>
       <c r="R60" t="n">
-        <v>7053028</v>
+        <v>7052921</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7590,10 +7590,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130741298</v>
+        <v>130741287</v>
       </c>
       <c r="B61" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7625,10 +7625,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>443946</v>
+        <v>444000</v>
       </c>
       <c r="R61" t="n">
-        <v>7052921</v>
+        <v>7053028</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7692,10 +7692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130741283</v>
+        <v>130734155</v>
       </c>
       <c r="B62" t="n">
-        <v>57880</v>
+        <v>91804</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7703,34 +7703,41 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>443927</v>
+        <v>443861</v>
       </c>
       <c r="R62" t="n">
-        <v>7052967</v>
+        <v>7053306</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7767,7 +7774,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7776,28 +7783,54 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130734155</v>
+        <v>130741308</v>
       </c>
       <c r="B63" t="n">
-        <v>91800</v>
+        <v>91828</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7805,41 +7838,30 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>443861</v>
+        <v>444020</v>
       </c>
       <c r="R63" t="n">
-        <v>7053306</v>
+        <v>7053458</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7874,65 +7896,34 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130741308</v>
+        <v>130734172</v>
       </c>
       <c r="B64" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7940,30 +7931,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>444020</v>
+        <v>444002</v>
       </c>
       <c r="R64" t="n">
-        <v>7053458</v>
+        <v>7053503</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8004,28 +8002,54 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734172</v>
+        <v>130734179</v>
       </c>
       <c r="B65" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8060,10 +8084,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>444002</v>
+        <v>443901</v>
       </c>
       <c r="R65" t="n">
-        <v>7053503</v>
+        <v>7053212</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8148,10 +8172,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130734179</v>
+        <v>130741283</v>
       </c>
       <c r="B66" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8159,37 +8183,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443901</v>
+        <v>443927</v>
       </c>
       <c r="R66" t="n">
-        <v>7053212</v>
+        <v>7052967</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8224,60 +8245,39 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
-      </c>
-      <c r="AH66" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130734184</v>
+        <v>130734151</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>80349</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8285,21 +8285,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>444032</v>
+        <v>444218</v>
       </c>
       <c r="R67" t="n">
-        <v>7053290</v>
+        <v>7053557</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
+          <t>Växer på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8370,24 +8370,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
+        </is>
+      </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8405,10 +8410,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130734188</v>
+        <v>130734184</v>
       </c>
       <c r="B68" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8443,10 +8448,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>444304</v>
+        <v>444032</v>
       </c>
       <c r="R68" t="n">
-        <v>7053564</v>
+        <v>7053290</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8483,7 +8488,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
+          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8536,10 +8541,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130734191</v>
+        <v>130734188</v>
       </c>
       <c r="B69" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8574,10 +8579,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>444407</v>
+        <v>444304</v>
       </c>
       <c r="R69" t="n">
-        <v>7053726</v>
+        <v>7053564</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8614,7 +8619,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på gran.</t>
+          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8630,11 +8635,6 @@
       <c r="AH69" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -8672,10 +8672,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130734168</v>
+        <v>130734191</v>
       </c>
       <c r="B70" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8710,10 +8710,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>444293</v>
+        <v>444407</v>
       </c>
       <c r="R70" t="n">
-        <v>7054016</v>
+        <v>7053726</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8748,6 +8748,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Relativt rikligt med garnlav på gran.</t>
+        </is>
+      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -8761,6 +8766,11 @@
       <c r="AH70" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
@@ -8798,10 +8808,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>130734169</v>
+        <v>130734168</v>
       </c>
       <c r="B71" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8836,10 +8846,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>444160</v>
+        <v>444293</v>
       </c>
       <c r="R71" t="n">
-        <v>7053858</v>
+        <v>7054016</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8872,11 +8882,6 @@
       <c r="AA71" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8929,10 +8934,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130734183</v>
+        <v>130734169</v>
       </c>
       <c r="B72" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8967,10 +8972,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>443986</v>
+        <v>444160</v>
       </c>
       <c r="R72" t="n">
-        <v>7053263</v>
+        <v>7053858</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9007,7 +9012,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>På gran i gles senvuxen granskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9023,11 +9028,6 @@
       <c r="AH72" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>Grandominerad skog med björk och inslag av asp.</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -9065,10 +9065,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130741280</v>
+        <v>130734183</v>
       </c>
       <c r="B73" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9076,34 +9076,37 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>444040</v>
+        <v>443986</v>
       </c>
       <c r="R73" t="n">
-        <v>7053449</v>
+        <v>7053263</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9140,7 +9143,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9149,28 +9152,59 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>Grandominerad skog med björk och inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130734151</v>
+        <v>130741280</v>
       </c>
       <c r="B74" t="n">
-        <v>80345</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9178,37 +9212,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>444218</v>
+        <v>444040</v>
       </c>
       <c r="R74" t="n">
-        <v>7053557</v>
+        <v>7053449</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9245,7 +9276,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Växer på en levande skadad sälg.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9254,49 +9285,18 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
-      </c>
-      <c r="AH74" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI74" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
-        </is>
-      </c>
-      <c r="AJ74" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK74" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO74" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -4625,10 +4625,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130734174</v>
+        <v>130741289</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4636,37 +4636,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>444078</v>
+        <v>443999</v>
       </c>
       <c r="R35" t="n">
-        <v>7053449</v>
+        <v>7053066</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4703,7 +4700,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Goda mängder garnlav på flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4712,54 +4709,28 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130734189</v>
+        <v>130741294</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4767,37 +4738,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>444342</v>
+        <v>443835</v>
       </c>
       <c r="R36" t="n">
-        <v>7053646</v>
+        <v>7052933</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4834,7 +4802,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlavsbålar på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4843,56 +4811,25 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130734176</v>
+        <v>130734174</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4930,10 +4867,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>444149</v>
+        <v>444078</v>
       </c>
       <c r="R37" t="n">
-        <v>7053319</v>
+        <v>7053449</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4970,7 +4907,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På gran i gles äldre granskog.</t>
+          <t>Goda mängder garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5023,10 +4960,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130741289</v>
+        <v>130734189</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5034,34 +4971,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>443999</v>
+        <v>444342</v>
       </c>
       <c r="R38" t="n">
-        <v>7053066</v>
+        <v>7053646</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5098,7 +5038,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Relativt rikligt med garnlavsbålar på gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5107,28 +5047,59 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130741294</v>
+        <v>130734176</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5136,34 +5107,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>443835</v>
+        <v>444149</v>
       </c>
       <c r="R39" t="n">
-        <v>7052933</v>
+        <v>7053319</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5200,7 +5174,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran i gles äldre granskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5209,18 +5183,44 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130741293</v>
+        <v>130734167</v>
       </c>
       <c r="B53" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6754,34 +6754,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>443827</v>
+        <v>444319</v>
       </c>
       <c r="R53" t="n">
-        <v>7052932</v>
+        <v>7054017</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6818,7 +6821,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6827,28 +6830,54 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130734167</v>
+        <v>130741311</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6856,37 +6885,30 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444319</v>
+        <v>443991</v>
       </c>
       <c r="R54" t="n">
-        <v>7054017</v>
+        <v>7052955</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6921,65 +6943,34 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741311</v>
+        <v>130741316</v>
       </c>
       <c r="B55" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6987,19 +6978,23 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7007,10 +7002,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>443991</v>
+        <v>444000</v>
       </c>
       <c r="R55" t="n">
-        <v>7052955</v>
+        <v>7053558</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7043,6 +7038,11 @@
       <c r="AA55" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7069,10 +7069,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741316</v>
+        <v>130741293</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7080,21 +7080,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>444000</v>
+        <v>443827</v>
       </c>
       <c r="R56" t="n">
-        <v>7053558</v>
+        <v>7052932</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7827,10 +7827,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130741308</v>
+        <v>130741283</v>
       </c>
       <c r="B63" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7838,19 +7838,23 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7858,10 +7862,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>444020</v>
+        <v>443927</v>
       </c>
       <c r="R63" t="n">
-        <v>7053458</v>
+        <v>7052967</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7894,6 +7898,11 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7920,10 +7929,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130734172</v>
+        <v>130741308</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7931,37 +7940,30 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>444002</v>
+        <v>444020</v>
       </c>
       <c r="R64" t="n">
-        <v>7053503</v>
+        <v>7053458</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8002,51 +8004,25 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
-      </c>
-      <c r="AH64" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ64" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK64" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM64" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO64" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734179</v>
+        <v>130734172</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -8084,10 +8060,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>443901</v>
+        <v>444002</v>
       </c>
       <c r="R65" t="n">
-        <v>7053212</v>
+        <v>7053503</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8172,10 +8148,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130741283</v>
+        <v>130734179</v>
       </c>
       <c r="B66" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8183,34 +8159,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443927</v>
+        <v>443901</v>
       </c>
       <c r="R66" t="n">
-        <v>7052967</v>
+        <v>7053212</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8245,29 +8224,50 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -1564,10 +1564,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130734156</v>
+        <v>130734145</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1575,24 +1575,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1602,10 +1607,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>443886</v>
+        <v>443967</v>
       </c>
       <c r="R9" t="n">
-        <v>7053279</v>
+        <v>7053469</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1642,7 +1647,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Gott om fruktkroppar i en granhögstubbe.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1651,7 +1656,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1660,6 +1664,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog.</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>gran</t>
@@ -1672,12 +1681,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1695,10 +1704,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130734145</v>
+        <v>130734156</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1706,29 +1715,24 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1738,10 +1742,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>443967</v>
+        <v>443886</v>
       </c>
       <c r="R10" t="n">
-        <v>7053469</v>
+        <v>7053279</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Gott om fruktkroppar i en granhögstubbe.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1787,6 +1791,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1795,11 +1800,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog.</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>gran</t>
@@ -1812,12 +1812,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130734180</v>
+        <v>130741320</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2050,37 +2050,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>443846</v>
+        <v>444326</v>
       </c>
       <c r="R13" t="n">
-        <v>7053252</v>
+        <v>7053588</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2115,62 +2112,31 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130734170</v>
+        <v>130734180</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2208,10 +2174,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>444133</v>
+        <v>443846</v>
       </c>
       <c r="R14" t="n">
-        <v>7053693</v>
+        <v>7053252</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2246,6 +2212,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2273,12 +2244,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2296,7 +2267,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130734164</v>
+        <v>130734170</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2334,10 +2305,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>444362</v>
+        <v>444133</v>
       </c>
       <c r="R15" t="n">
-        <v>7054079</v>
+        <v>7053693</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2370,11 +2341,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2427,10 +2393,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130741279</v>
+        <v>130734164</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2438,34 +2404,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>444007</v>
+        <v>444362</v>
       </c>
       <c r="R16" t="n">
-        <v>7053457</v>
+        <v>7054079</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2502,7 +2471,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2511,28 +2480,54 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130741320</v>
+        <v>130741279</v>
       </c>
       <c r="B17" t="n">
-        <v>89193</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2540,21 +2535,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2564,10 +2559,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444326</v>
+        <v>444007</v>
       </c>
       <c r="R17" t="n">
-        <v>7053588</v>
+        <v>7053457</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2600,6 +2595,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -3233,7 +3233,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130741285</v>
+        <v>130741297</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>443963</v>
+        <v>443871</v>
       </c>
       <c r="R23" t="n">
-        <v>7052972</v>
+        <v>7052942</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130741297</v>
+        <v>130741285</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3472,10 +3472,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>443871</v>
+        <v>443963</v>
       </c>
       <c r="R25" t="n">
-        <v>7052942</v>
+        <v>7052972</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3805,10 +3805,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130741314</v>
+        <v>130734165</v>
       </c>
       <c r="B28" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3816,30 +3816,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>444416</v>
+        <v>444343</v>
       </c>
       <c r="R28" t="n">
-        <v>7053728</v>
+        <v>7054057</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3874,31 +3881,62 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130734165</v>
+        <v>130734185</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3936,10 +3974,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>444343</v>
+        <v>444157</v>
       </c>
       <c r="R29" t="n">
-        <v>7054057</v>
+        <v>7053507</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3976,7 +4014,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4029,10 +4067,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130734185</v>
+        <v>130741314</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4040,37 +4078,30 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>444157</v>
+        <v>444416</v>
       </c>
       <c r="R30" t="n">
-        <v>7053507</v>
+        <v>7053728</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4105,55 +4136,24 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130741289</v>
+        <v>130734174</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4636,34 +4636,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>443999</v>
+        <v>444078</v>
       </c>
       <c r="R35" t="n">
-        <v>7053066</v>
+        <v>7053449</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4700,7 +4703,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Goda mängder garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4709,28 +4712,54 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130741294</v>
+        <v>130734189</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4738,34 +4767,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>443835</v>
+        <v>444342</v>
       </c>
       <c r="R36" t="n">
-        <v>7052933</v>
+        <v>7053646</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4802,7 +4834,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Relativt rikligt med garnlavsbålar på gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4811,25 +4843,56 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130734174</v>
+        <v>130734176</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4867,10 +4930,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>444078</v>
+        <v>444149</v>
       </c>
       <c r="R37" t="n">
-        <v>7053449</v>
+        <v>7053319</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4907,7 +4970,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Goda mängder garnlav på flera granar.</t>
+          <t>På gran i gles äldre granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4960,10 +5023,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130734189</v>
+        <v>130741289</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4971,37 +5034,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>444342</v>
+        <v>443999</v>
       </c>
       <c r="R38" t="n">
-        <v>7053646</v>
+        <v>7053066</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5038,7 +5098,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlavsbålar på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5047,59 +5107,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130734176</v>
+        <v>130741294</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5107,37 +5136,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>444149</v>
+        <v>443835</v>
       </c>
       <c r="R39" t="n">
-        <v>7053319</v>
+        <v>7052933</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5174,7 +5200,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På gran i gles äldre granskog.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5183,54 +5209,28 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130741318</v>
+        <v>130741292</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5238,21 +5238,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>444153</v>
+        <v>443750</v>
       </c>
       <c r="R40" t="n">
-        <v>7053487</v>
+        <v>7052993</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5298,6 +5298,11 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5324,10 +5329,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130734173</v>
+        <v>130741301</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5335,37 +5340,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>444046</v>
+        <v>443990</v>
       </c>
       <c r="R41" t="n">
-        <v>7053496</v>
+        <v>7052974</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5402,7 +5404,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5411,44 +5413,18 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5557,7 +5533,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130741301</v>
+        <v>130734144</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5586,16 +5562,24 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>443990</v>
+        <v>444016</v>
       </c>
       <c r="R43" t="n">
-        <v>7052974</v>
+        <v>7053579</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5632,7 +5616,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5643,26 +5627,51 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130741292</v>
+        <v>130741318</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5670,21 +5679,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5694,10 +5703,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>443750</v>
+        <v>444153</v>
       </c>
       <c r="R44" t="n">
-        <v>7052993</v>
+        <v>7053487</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5730,11 +5739,6 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5761,10 +5765,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130734144</v>
+        <v>130734173</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5772,31 +5776,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5804,10 +5803,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>444016</v>
+        <v>444046</v>
       </c>
       <c r="R45" t="n">
-        <v>7053579</v>
+        <v>7053496</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5844,7 +5843,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på stambasen av en gran.</t>
+          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5853,6 +5852,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5873,12 +5873,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130734147</v>
+        <v>130741281</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5925,24 +5925,16 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>443820</v>
+        <v>443901</v>
       </c>
       <c r="R46" t="n">
-        <v>7053223</v>
+        <v>7053024</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5979,7 +5971,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, färska, i god mängd längs minst 6 meter på en granstam inom en avverkningsanmäld yta och utanför planerad naturhänsyn.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5990,53 +5982,23 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>Flerakiktad äldre granskog med björk och inslag av asp. Stor stamdiameterspridning med naturvärdes-granar med över 50 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130741281</v>
+        <v>130734147</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -6065,16 +6027,24 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>443901</v>
+        <v>443820</v>
       </c>
       <c r="R47" t="n">
-        <v>7053024</v>
+        <v>7053223</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6111,7 +6081,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska, i god mängd längs minst 6 meter på en granstam inom en avverkningsanmäld yta och utanför planerad naturhänsyn.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6122,16 +6092,46 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Flerakiktad äldre granskog med björk och inslag av asp. Stor stamdiameterspridning med naturvärdes-granar med över 50 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130734146</v>
+        <v>130741288</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -6298,24 +6298,16 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>443949</v>
+        <v>443996</v>
       </c>
       <c r="R49" t="n">
-        <v>7053197</v>
+        <v>7053048</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6352,7 +6344,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6363,48 +6355,23 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130734148</v>
+        <v>130741299</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -6433,24 +6400,16 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>444153</v>
+        <v>443972</v>
       </c>
       <c r="R50" t="n">
-        <v>7053496</v>
+        <v>7052967</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6487,7 +6446,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6498,48 +6457,23 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130741288</v>
+        <v>130734148</v>
       </c>
       <c r="B51" t="n">
         <v>57884</v>
@@ -6568,16 +6502,24 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>443996</v>
+        <v>444153</v>
       </c>
       <c r="R51" t="n">
-        <v>7053048</v>
+        <v>7053496</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6614,7 +6556,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6625,23 +6567,48 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130741299</v>
+        <v>130734146</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -6670,16 +6637,24 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>443972</v>
+        <v>443949</v>
       </c>
       <c r="R52" t="n">
-        <v>7052967</v>
+        <v>7053197</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6716,7 +6691,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6727,16 +6702,41 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
@@ -6874,10 +6874,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130741311</v>
+        <v>130741316</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6885,19 +6885,23 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6905,10 +6909,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>443991</v>
+        <v>444000</v>
       </c>
       <c r="R54" t="n">
-        <v>7052955</v>
+        <v>7053558</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6941,6 +6945,11 @@
       <c r="AA54" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6967,10 +6976,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741316</v>
+        <v>130741293</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6978,21 +6987,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7002,10 +7011,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444000</v>
+        <v>443827</v>
       </c>
       <c r="R55" t="n">
-        <v>7053558</v>
+        <v>7052932</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7042,7 +7051,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7069,10 +7078,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741293</v>
+        <v>130741311</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7080,23 +7089,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7104,10 +7109,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>443827</v>
+        <v>443991</v>
       </c>
       <c r="R56" t="n">
-        <v>7052932</v>
+        <v>7052955</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7140,11 +7145,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7171,10 +7171,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130741310</v>
+        <v>130734171</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7182,30 +7182,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>443891</v>
+        <v>443981</v>
       </c>
       <c r="R57" t="n">
-        <v>7053029</v>
+        <v>7053488</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7240,31 +7247,62 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130741309</v>
+        <v>130741310</v>
       </c>
       <c r="B58" t="n">
         <v>91828</v>
@@ -7295,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>443836</v>
+        <v>443891</v>
       </c>
       <c r="R58" t="n">
-        <v>7052967</v>
+        <v>7053029</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7357,10 +7395,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130734171</v>
+        <v>130741309</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7368,37 +7406,30 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>443981</v>
+        <v>443836</v>
       </c>
       <c r="R59" t="n">
-        <v>7053488</v>
+        <v>7052967</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7433,62 +7464,31 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130741298</v>
+        <v>130741287</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -7523,10 +7523,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>443946</v>
+        <v>444000</v>
       </c>
       <c r="R60" t="n">
-        <v>7052921</v>
+        <v>7053028</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130741287</v>
+        <v>130741298</v>
       </c>
       <c r="B61" t="n">
         <v>57884</v>
@@ -7625,10 +7625,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>444000</v>
+        <v>443946</v>
       </c>
       <c r="R61" t="n">
-        <v>7053028</v>
+        <v>7052921</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7692,10 +7692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130734155</v>
+        <v>130734172</v>
       </c>
       <c r="B62" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7703,30 +7703,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7734,10 +7730,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>443861</v>
+        <v>444002</v>
       </c>
       <c r="R62" t="n">
-        <v>7053306</v>
+        <v>7053503</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7772,11 +7768,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -7804,12 +7795,12 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -7827,10 +7818,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130741283</v>
+        <v>130734179</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7838,34 +7829,37 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>443927</v>
+        <v>443901</v>
       </c>
       <c r="R63" t="n">
-        <v>7052967</v>
+        <v>7053212</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7900,29 +7894,50 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
@@ -8022,10 +8037,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734172</v>
+        <v>130734155</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8033,26 +8048,30 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8060,10 +8079,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>444002</v>
+        <v>443861</v>
       </c>
       <c r="R65" t="n">
-        <v>7053503</v>
+        <v>7053306</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8098,6 +8117,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8125,12 +8149,12 @@
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8148,10 +8172,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130734179</v>
+        <v>130741283</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8159,37 +8183,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443901</v>
+        <v>443927</v>
       </c>
       <c r="R66" t="n">
-        <v>7053212</v>
+        <v>7052967</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8224,60 +8245,39 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
-      </c>
-      <c r="AH66" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130734151</v>
+        <v>130734184</v>
       </c>
       <c r="B67" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8285,21 +8285,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>444218</v>
+        <v>444032</v>
       </c>
       <c r="R67" t="n">
-        <v>7053557</v>
+        <v>7053290</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Växer på en levande skadad sälg.</t>
+          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8370,29 +8370,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
-        </is>
-      </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8410,7 +8405,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130734184</v>
+        <v>130734188</v>
       </c>
       <c r="B68" t="n">
         <v>79243</v>
@@ -8448,10 +8443,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>444032</v>
+        <v>444304</v>
       </c>
       <c r="R68" t="n">
-        <v>7053290</v>
+        <v>7053564</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8488,7 +8483,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
+          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8541,7 +8536,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130734188</v>
+        <v>130734191</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -8579,10 +8574,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>444304</v>
+        <v>444407</v>
       </c>
       <c r="R69" t="n">
-        <v>7053564</v>
+        <v>7053726</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8619,7 +8614,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
+          <t>Relativt rikligt med garnlav på gran.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8635,6 +8630,11 @@
       <c r="AH69" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -8672,7 +8672,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130734191</v>
+        <v>130734168</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8710,10 +8710,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>444407</v>
+        <v>444293</v>
       </c>
       <c r="R70" t="n">
-        <v>7053726</v>
+        <v>7054016</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8748,11 +8748,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>Relativt rikligt med garnlav på gran.</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -8766,11 +8761,6 @@
       <c r="AH70" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI70" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
@@ -8808,7 +8798,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>130734168</v>
+        <v>130734169</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8846,10 +8836,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>444293</v>
+        <v>444160</v>
       </c>
       <c r="R71" t="n">
-        <v>7054016</v>
+        <v>7053858</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8882,6 +8872,11 @@
       <c r="AA71" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8934,7 +8929,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130734169</v>
+        <v>130734183</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8972,10 +8967,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>444160</v>
+        <v>443986</v>
       </c>
       <c r="R72" t="n">
-        <v>7053858</v>
+        <v>7053263</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9012,7 +9007,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>På gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9028,6 +9023,11 @@
       <c r="AH72" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>Grandominerad skog med björk och inslag av asp.</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -9065,10 +9065,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130734183</v>
+        <v>130741280</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9076,37 +9076,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>443986</v>
+        <v>444040</v>
       </c>
       <c r="R73" t="n">
-        <v>7053263</v>
+        <v>7053449</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9143,7 +9140,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>På gran i gles senvuxen granskog.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9152,59 +9149,28 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
-      </c>
-      <c r="AH73" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI73" t="inlineStr">
-        <is>
-          <t>Grandominerad skog med björk och inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AJ73" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK73" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM73" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO73" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130741280</v>
+        <v>130734151</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9212,34 +9178,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>444040</v>
+        <v>444218</v>
       </c>
       <c r="R74" t="n">
-        <v>7053449</v>
+        <v>7053557</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9276,7 +9245,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Växer på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9285,18 +9254,49 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -1564,10 +1564,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130734145</v>
+        <v>130734156</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1575,29 +1575,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1607,10 +1602,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>443967</v>
+        <v>443886</v>
       </c>
       <c r="R9" t="n">
-        <v>7053469</v>
+        <v>7053279</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1647,7 +1642,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Gott om fruktkroppar i en granhögstubbe.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1656,6 +1651,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1664,11 +1660,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog.</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>gran</t>
@@ -1681,12 +1672,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1704,10 +1695,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130734156</v>
+        <v>130741302</v>
       </c>
       <c r="B10" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1715,37 +1706,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>443886</v>
+        <v>443997</v>
       </c>
       <c r="R10" t="n">
-        <v>7053279</v>
+        <v>7053008</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1782,7 +1770,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Gott om fruktkroppar i en granhögstubbe.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1791,51 +1779,25 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130741302</v>
+        <v>130741291</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1870,10 +1832,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>443997</v>
+        <v>443794</v>
       </c>
       <c r="R11" t="n">
-        <v>7053008</v>
+        <v>7053002</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1910,7 +1872,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1937,7 +1899,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130741291</v>
+        <v>130734145</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1966,16 +1928,24 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>443794</v>
+        <v>443967</v>
       </c>
       <c r="R12" t="n">
-        <v>7053002</v>
+        <v>7053469</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2012,7 +1982,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2023,26 +1993,56 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog.</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130741320</v>
+        <v>130741279</v>
       </c>
       <c r="B13" t="n">
-        <v>89193</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2050,21 +2050,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>444326</v>
+        <v>444007</v>
       </c>
       <c r="R13" t="n">
-        <v>7053588</v>
+        <v>7053457</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2110,6 +2110,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2136,10 +2141,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130734180</v>
+        <v>130741320</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2147,37 +2152,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>443846</v>
+        <v>444326</v>
       </c>
       <c r="R14" t="n">
-        <v>7053252</v>
+        <v>7053588</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2212,62 +2214,31 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130734170</v>
+        <v>130734180</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2305,10 +2276,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>444133</v>
+        <v>443846</v>
       </c>
       <c r="R15" t="n">
-        <v>7053693</v>
+        <v>7053252</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2343,6 +2314,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2370,12 +2346,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2393,7 +2369,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130734164</v>
+        <v>130734170</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2431,10 +2407,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>444362</v>
+        <v>444133</v>
       </c>
       <c r="R16" t="n">
-        <v>7054079</v>
+        <v>7053693</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,11 +2443,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2524,10 +2495,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130741279</v>
+        <v>130734164</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2535,34 +2506,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444007</v>
+        <v>444362</v>
       </c>
       <c r="R17" t="n">
-        <v>7053457</v>
+        <v>7054079</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2599,7 +2573,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2608,18 +2582,44 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130734174</v>
+        <v>130741289</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4636,37 +4636,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>444078</v>
+        <v>443999</v>
       </c>
       <c r="R35" t="n">
-        <v>7053449</v>
+        <v>7053066</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4703,7 +4700,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Goda mängder garnlav på flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4712,54 +4709,28 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130734189</v>
+        <v>130741294</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4767,37 +4738,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>444342</v>
+        <v>443835</v>
       </c>
       <c r="R36" t="n">
-        <v>7053646</v>
+        <v>7052933</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4834,7 +4802,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlavsbålar på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4843,56 +4811,25 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130734176</v>
+        <v>130734174</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4930,10 +4867,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>444149</v>
+        <v>444078</v>
       </c>
       <c r="R37" t="n">
-        <v>7053319</v>
+        <v>7053449</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4970,7 +4907,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På gran i gles äldre granskog.</t>
+          <t>Goda mängder garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5023,10 +4960,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130741289</v>
+        <v>130734189</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5034,34 +4971,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>443999</v>
+        <v>444342</v>
       </c>
       <c r="R38" t="n">
-        <v>7053066</v>
+        <v>7053646</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5098,7 +5038,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Relativt rikligt med garnlavsbålar på gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5107,28 +5047,59 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130741294</v>
+        <v>130734176</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5136,34 +5107,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>443835</v>
+        <v>444149</v>
       </c>
       <c r="R39" t="n">
-        <v>7052933</v>
+        <v>7053319</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5200,7 +5174,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran i gles äldre granskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5209,18 +5183,44 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -6976,10 +6976,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741293</v>
+        <v>130741311</v>
       </c>
       <c r="B55" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6987,23 +6987,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7011,10 +7007,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>443827</v>
+        <v>443991</v>
       </c>
       <c r="R55" t="n">
-        <v>7052932</v>
+        <v>7052955</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7047,11 +7043,6 @@
       <c r="AA55" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7078,10 +7069,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741311</v>
+        <v>130741293</v>
       </c>
       <c r="B56" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7089,19 +7080,23 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7109,10 +7104,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>443991</v>
+        <v>443827</v>
       </c>
       <c r="R56" t="n">
-        <v>7052955</v>
+        <v>7052932</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7145,6 +7140,11 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7692,10 +7692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130734172</v>
+        <v>130734155</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7703,26 +7703,30 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7730,10 +7734,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>444002</v>
+        <v>443861</v>
       </c>
       <c r="R62" t="n">
-        <v>7053503</v>
+        <v>7053306</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7768,6 +7772,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -7795,12 +7804,12 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -7818,10 +7827,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130734179</v>
+        <v>130741308</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7829,37 +7838,30 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>443901</v>
+        <v>444020</v>
       </c>
       <c r="R63" t="n">
-        <v>7053212</v>
+        <v>7053458</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7900,54 +7902,28 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130741308</v>
+        <v>130741283</v>
       </c>
       <c r="B64" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7955,19 +7931,23 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -7975,10 +7955,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>444020</v>
+        <v>443927</v>
       </c>
       <c r="R64" t="n">
-        <v>7053458</v>
+        <v>7052967</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8011,6 +7991,11 @@
       <c r="AA64" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8037,10 +8022,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734155</v>
+        <v>130734172</v>
       </c>
       <c r="B65" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8048,30 +8033,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8079,10 +8060,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>443861</v>
+        <v>444002</v>
       </c>
       <c r="R65" t="n">
-        <v>7053306</v>
+        <v>7053503</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8117,11 +8098,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8149,12 +8125,12 @@
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8172,10 +8148,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130741283</v>
+        <v>130734179</v>
       </c>
       <c r="B66" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8183,34 +8159,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443927</v>
+        <v>443901</v>
       </c>
       <c r="R66" t="n">
-        <v>7052967</v>
+        <v>7053212</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8245,29 +8224,50 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130734182</v>
+        <v>130734186</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>443903</v>
+        <v>444272</v>
       </c>
       <c r="R2" t="n">
-        <v>7053286</v>
+        <v>7053547</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På gran i äldre granskog.</t>
+          <t>Rikligt med garnlav på flera granar i senvuxen äldre granskog.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130734186</v>
+        <v>130734182</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>444272</v>
+        <v>443903</v>
       </c>
       <c r="R3" t="n">
-        <v>7053547</v>
+        <v>7053286</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt med garnlav på flera granar i senvuxen äldre granskog.</t>
+          <t>På gran i äldre granskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130734153</v>
+        <v>130734193</v>
       </c>
       <c r="B5" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,30 +1071,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1102,10 +1098,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>443857</v>
+        <v>444436</v>
       </c>
       <c r="R5" t="n">
-        <v>7053224</v>
+        <v>7053798</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,11 +1136,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gott om fruktkroppar i stambasen av en stående grov gran med 50 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1162,7 +1153,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka asp.</t>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1177,12 +1168,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1200,10 +1191,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130734193</v>
+        <v>130734153</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1211,26 +1202,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1238,10 +1233,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>444436</v>
+        <v>443857</v>
       </c>
       <c r="R6" t="n">
-        <v>7053798</v>
+        <v>7053224</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1276,6 +1271,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Gott om fruktkroppar i stambasen av en stående grov gran med 50 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka asp.</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130734156</v>
+        <v>130734145</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1575,24 +1575,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1602,10 +1607,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>443886</v>
+        <v>443967</v>
       </c>
       <c r="R9" t="n">
-        <v>7053279</v>
+        <v>7053469</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1642,7 +1647,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Gott om fruktkroppar i en granhögstubbe.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1651,7 +1656,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1660,6 +1664,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog.</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>gran</t>
@@ -1672,12 +1681,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1695,10 +1704,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130741302</v>
+        <v>130734156</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1706,34 +1715,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>443997</v>
+        <v>443886</v>
       </c>
       <c r="R10" t="n">
-        <v>7053008</v>
+        <v>7053279</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1770,7 +1782,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Gott om fruktkroppar i en granhögstubbe.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1779,25 +1791,51 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130741291</v>
+        <v>130741302</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1832,10 +1870,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>443794</v>
+        <v>443997</v>
       </c>
       <c r="R11" t="n">
-        <v>7053002</v>
+        <v>7053008</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1872,7 +1910,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1899,7 +1937,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130734145</v>
+        <v>130741291</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1928,24 +1966,16 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>443967</v>
+        <v>443794</v>
       </c>
       <c r="R12" t="n">
-        <v>7053469</v>
+        <v>7053002</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1982,7 +2012,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1993,56 +2023,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog.</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130741279</v>
+        <v>130734170</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2050,34 +2050,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>444007</v>
+        <v>444133</v>
       </c>
       <c r="R13" t="n">
-        <v>7053457</v>
+        <v>7053693</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2112,29 +2115,50 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2238,7 +2262,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130734180</v>
+        <v>130734164</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2276,10 +2300,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>443846</v>
+        <v>444362</v>
       </c>
       <c r="R15" t="n">
-        <v>7053252</v>
+        <v>7054079</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2316,7 +2340,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2346,12 +2370,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2369,7 +2393,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130734170</v>
+        <v>130734180</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2407,10 +2431,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>444133</v>
+        <v>443846</v>
       </c>
       <c r="R16" t="n">
-        <v>7053693</v>
+        <v>7053252</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2445,6 +2469,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2472,12 +2501,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2495,10 +2524,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130734164</v>
+        <v>130741279</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2506,37 +2535,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444362</v>
+        <v>444007</v>
       </c>
       <c r="R17" t="n">
-        <v>7054079</v>
+        <v>7053457</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2573,7 +2599,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>På gamla granar.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2582,44 +2608,18 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130734190</v>
+        <v>130741284</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2739,37 +2739,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>444347</v>
+        <v>443929</v>
       </c>
       <c r="R19" t="n">
-        <v>7053668</v>
+        <v>7052944</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2806,7 +2803,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Garnlav på en stående död gran med full längd och ca 10-20 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2815,56 +2812,25 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130734177</v>
+        <v>130734190</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2902,10 +2868,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>443938</v>
+        <v>444347</v>
       </c>
       <c r="R20" t="n">
-        <v>7053186</v>
+        <v>7053668</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2942,7 +2908,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På gran i gammal granskog.</t>
+          <t>Garnlav på en stående död gran med full längd och ca 10-20 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2960,6 +2926,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
       <c r="AJ20" t="inlineStr">
         <is>
           <t>gran</t>
@@ -2972,12 +2943,12 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3131,10 +3102,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130741284</v>
+        <v>130734177</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3142,34 +3113,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>443929</v>
+        <v>443938</v>
       </c>
       <c r="R22" t="n">
-        <v>7052944</v>
+        <v>7053186</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3206,7 +3180,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran i gammal granskog.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3215,28 +3189,54 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130741297</v>
+        <v>130734162</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3244,34 +3244,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>443871</v>
+        <v>444375</v>
       </c>
       <c r="R23" t="n">
-        <v>7052942</v>
+        <v>7054118</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3306,39 +3309,60 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130741282</v>
+        <v>130741314</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3346,23 +3370,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3370,10 +3390,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>443897</v>
+        <v>444416</v>
       </c>
       <c r="R24" t="n">
-        <v>7052981</v>
+        <v>7053728</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3406,11 +3426,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3437,10 +3452,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130741285</v>
+        <v>130734165</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3448,34 +3463,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>443963</v>
+        <v>444343</v>
       </c>
       <c r="R25" t="n">
-        <v>7052972</v>
+        <v>7054057</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3512,7 +3530,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3521,28 +3539,54 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130734150</v>
+        <v>130734185</v>
       </c>
       <c r="B26" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3550,30 +3594,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3581,10 +3621,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>444358</v>
+        <v>444157</v>
       </c>
       <c r="R26" t="n">
-        <v>7054049</v>
+        <v>7053507</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3621,7 +3661,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3639,29 +3679,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3679,10 +3714,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130734162</v>
+        <v>130741297</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3690,37 +3725,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>444375</v>
+        <v>443871</v>
       </c>
       <c r="R27" t="n">
-        <v>7054118</v>
+        <v>7052942</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3755,60 +3787,39 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130734165</v>
+        <v>130741282</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3816,37 +3827,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>444343</v>
+        <v>443897</v>
       </c>
       <c r="R28" t="n">
-        <v>7054057</v>
+        <v>7052981</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3891,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3892,54 +3900,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130734185</v>
+        <v>130741285</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3947,37 +3929,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>444157</v>
+        <v>443963</v>
       </c>
       <c r="R29" t="n">
-        <v>7053507</v>
+        <v>7052972</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4014,7 +3993,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4023,54 +4002,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130741314</v>
+        <v>130734150</v>
       </c>
       <c r="B30" t="n">
-        <v>91828</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4078,30 +4031,41 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>444416</v>
+        <v>444358</v>
       </c>
       <c r="R30" t="n">
-        <v>7053728</v>
+        <v>7054049</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4136,34 +4100,70 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130734181</v>
+        <v>130741313</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,37 +4171,30 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>443859</v>
+        <v>443985</v>
       </c>
       <c r="R31" t="n">
-        <v>7053310</v>
+        <v>7052983</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4236,55 +4229,24 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -4422,10 +4384,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130741313</v>
+        <v>130734181</v>
       </c>
       <c r="B33" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4433,30 +4395,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>443985</v>
+        <v>443859</v>
       </c>
       <c r="R33" t="n">
-        <v>7052983</v>
+        <v>7053310</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4491,24 +4460,55 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130734189</v>
+        <v>130734176</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4998,10 +4998,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>444342</v>
+        <v>444149</v>
       </c>
       <c r="R38" t="n">
-        <v>7053646</v>
+        <v>7053319</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlavsbålar på gran.</t>
+          <t>På gran i gles äldre granskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5054,11 +5054,6 @@
       <c r="AH38" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5096,7 +5091,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130734176</v>
+        <v>130734189</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -5134,10 +5129,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>444149</v>
+        <v>444342</v>
       </c>
       <c r="R39" t="n">
-        <v>7053319</v>
+        <v>7053646</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5174,7 +5169,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På gran i gles äldre granskog.</t>
+          <t>Relativt rikligt med garnlavsbålar på gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5190,6 +5185,11 @@
       <c r="AH39" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5227,10 +5227,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130741292</v>
+        <v>130741318</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5238,21 +5238,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>443750</v>
+        <v>444153</v>
       </c>
       <c r="R40" t="n">
-        <v>7052993</v>
+        <v>7053487</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5298,11 +5298,6 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5329,7 +5324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130741301</v>
+        <v>130741292</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -5364,10 +5359,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>443990</v>
+        <v>443750</v>
       </c>
       <c r="R41" t="n">
-        <v>7052974</v>
+        <v>7052993</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5404,7 +5399,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5431,7 +5426,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130741295</v>
+        <v>130741301</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -5466,10 +5461,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>443845</v>
+        <v>443990</v>
       </c>
       <c r="R42" t="n">
-        <v>7052918</v>
+        <v>7052974</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5506,7 +5501,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5533,7 +5528,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130734144</v>
+        <v>130741295</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5562,24 +5557,16 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>444016</v>
+        <v>443845</v>
       </c>
       <c r="R43" t="n">
-        <v>7053579</v>
+        <v>7052918</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5616,7 +5603,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5627,48 +5614,23 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130741318</v>
+        <v>130734173</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5697,16 +5659,19 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>444153</v>
+        <v>444046</v>
       </c>
       <c r="R44" t="n">
-        <v>7053487</v>
+        <v>7053496</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5741,34 +5706,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130734173</v>
+        <v>130734144</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5776,26 +5772,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5803,10 +5804,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>444046</v>
+        <v>444016</v>
       </c>
       <c r="R45" t="n">
-        <v>7053496</v>
+        <v>7053579</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5843,7 +5844,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack, färska, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5852,7 +5853,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5873,12 +5873,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130741288</v>
+        <v>130734146</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -6298,16 +6298,24 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>443996</v>
+        <v>443949</v>
       </c>
       <c r="R49" t="n">
-        <v>7053048</v>
+        <v>7053197</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6344,7 +6352,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6355,23 +6363,48 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130741299</v>
+        <v>130734148</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -6400,16 +6433,24 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>443972</v>
+        <v>444153</v>
       </c>
       <c r="R50" t="n">
-        <v>7052967</v>
+        <v>7053496</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6446,7 +6487,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6457,23 +6498,48 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130734148</v>
+        <v>130741288</v>
       </c>
       <c r="B51" t="n">
         <v>57884</v>
@@ -6502,24 +6568,16 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>444153</v>
+        <v>443996</v>
       </c>
       <c r="R51" t="n">
-        <v>7053496</v>
+        <v>7053048</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6556,7 +6614,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6567,48 +6625,23 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130734146</v>
+        <v>130741299</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -6637,24 +6670,16 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>443949</v>
+        <v>443972</v>
       </c>
       <c r="R52" t="n">
-        <v>7053197</v>
+        <v>7052967</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6691,7 +6716,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6702,51 +6727,26 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130734167</v>
+        <v>130741293</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6754,37 +6754,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>444319</v>
+        <v>443827</v>
       </c>
       <c r="R53" t="n">
-        <v>7054017</v>
+        <v>7052932</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6821,7 +6818,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6830,44 +6827,18 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
@@ -6976,10 +6947,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741311</v>
+        <v>130734167</v>
       </c>
       <c r="B55" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6987,30 +6958,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>443991</v>
+        <v>444319</v>
       </c>
       <c r="R55" t="n">
-        <v>7052955</v>
+        <v>7054017</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7045,34 +7023,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741293</v>
+        <v>130741311</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7080,23 +7089,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7104,10 +7109,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>443827</v>
+        <v>443991</v>
       </c>
       <c r="R56" t="n">
-        <v>7052932</v>
+        <v>7052955</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7140,11 +7145,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7171,10 +7171,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130734171</v>
+        <v>130741309</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7182,37 +7182,30 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>443981</v>
+        <v>443836</v>
       </c>
       <c r="R57" t="n">
-        <v>7053488</v>
+        <v>7052967</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7247,65 +7240,34 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130741310</v>
+        <v>130741287</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7313,19 +7275,23 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7333,10 +7299,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>443891</v>
+        <v>444000</v>
       </c>
       <c r="R58" t="n">
-        <v>7053029</v>
+        <v>7053028</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7369,6 +7335,11 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7395,10 +7366,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130741309</v>
+        <v>130741298</v>
       </c>
       <c r="B59" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7406,19 +7377,23 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7426,10 +7401,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>443836</v>
+        <v>443946</v>
       </c>
       <c r="R59" t="n">
-        <v>7052967</v>
+        <v>7052921</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7462,6 +7437,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7488,10 +7468,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130741287</v>
+        <v>130734171</v>
       </c>
       <c r="B60" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7499,34 +7479,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444000</v>
+        <v>443981</v>
       </c>
       <c r="R60" t="n">
-        <v>7053028</v>
+        <v>7053488</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7563,7 +7546,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7572,28 +7555,54 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130741298</v>
+        <v>130741310</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7601,23 +7610,19 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7625,10 +7630,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>443946</v>
+        <v>443891</v>
       </c>
       <c r="R61" t="n">
-        <v>7052921</v>
+        <v>7053029</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7661,11 +7666,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7692,10 +7692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130734155</v>
+        <v>130734179</v>
       </c>
       <c r="B62" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7703,30 +7703,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7734,10 +7730,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>443861</v>
+        <v>443901</v>
       </c>
       <c r="R62" t="n">
-        <v>7053306</v>
+        <v>7053212</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7772,11 +7768,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -7804,12 +7795,12 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -7827,10 +7818,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130741308</v>
+        <v>130734172</v>
       </c>
       <c r="B63" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7838,30 +7829,37 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>444020</v>
+        <v>444002</v>
       </c>
       <c r="R63" t="n">
-        <v>7053458</v>
+        <v>7053503</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7902,28 +7900,54 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130741283</v>
+        <v>130741308</v>
       </c>
       <c r="B64" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7931,23 +7955,19 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -7955,10 +7975,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>443927</v>
+        <v>444020</v>
       </c>
       <c r="R64" t="n">
-        <v>7052967</v>
+        <v>7053458</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7991,11 +8011,6 @@
       <c r="AA64" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8022,10 +8037,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734172</v>
+        <v>130734155</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8033,26 +8048,30 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8060,10 +8079,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>444002</v>
+        <v>443861</v>
       </c>
       <c r="R65" t="n">
-        <v>7053503</v>
+        <v>7053306</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8098,6 +8117,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8125,12 +8149,12 @@
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8148,10 +8172,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130734179</v>
+        <v>130741283</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8159,37 +8183,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443901</v>
+        <v>443927</v>
       </c>
       <c r="R66" t="n">
-        <v>7053212</v>
+        <v>7052967</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8224,57 +8245,36 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
-      </c>
-      <c r="AH66" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130734184</v>
+        <v>130734191</v>
       </c>
       <c r="B67" t="n">
         <v>79243</v>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>444032</v>
+        <v>444407</v>
       </c>
       <c r="R67" t="n">
-        <v>7053290</v>
+        <v>7053726</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
+          <t>Relativt rikligt med garnlav på gran.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8368,6 +8368,11 @@
       <c r="AH67" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -8405,7 +8410,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130734188</v>
+        <v>130734168</v>
       </c>
       <c r="B68" t="n">
         <v>79243</v>
@@ -8443,10 +8448,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>444304</v>
+        <v>444293</v>
       </c>
       <c r="R68" t="n">
-        <v>7053564</v>
+        <v>7054016</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8479,11 +8484,6 @@
       <c r="AA68" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8536,7 +8536,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130734191</v>
+        <v>130734188</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>444407</v>
+        <v>444304</v>
       </c>
       <c r="R69" t="n">
-        <v>7053726</v>
+        <v>7053564</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på gran.</t>
+          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8630,11 +8630,6 @@
       <c r="AH69" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -8672,7 +8667,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130734168</v>
+        <v>130734184</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8710,10 +8705,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>444293</v>
+        <v>444032</v>
       </c>
       <c r="R70" t="n">
-        <v>7054016</v>
+        <v>7053290</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8746,6 +8741,11 @@
       <c r="AA70" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8929,10 +8929,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130734183</v>
+        <v>130734151</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8940,21 +8940,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8967,10 +8967,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>443986</v>
+        <v>444218</v>
       </c>
       <c r="R72" t="n">
-        <v>7053263</v>
+        <v>7053557</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>På gran i gles senvuxen granskog.</t>
+          <t>Växer på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9027,27 +9027,27 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>Grandominerad skog med björk och inslag av asp.</t>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130741280</v>
+        <v>130734183</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9076,34 +9076,37 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>444040</v>
+        <v>443986</v>
       </c>
       <c r="R73" t="n">
-        <v>7053449</v>
+        <v>7053263</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9140,7 +9143,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9149,28 +9152,59 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>Grandominerad skog med björk och inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130734151</v>
+        <v>130741280</v>
       </c>
       <c r="B74" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9178,37 +9212,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>444218</v>
+        <v>444040</v>
       </c>
       <c r="R74" t="n">
-        <v>7053557</v>
+        <v>7053449</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9245,7 +9276,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Växer på en levande skadad sälg.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9254,49 +9285,18 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
-      </c>
-      <c r="AH74" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI74" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
-        </is>
-      </c>
-      <c r="AJ74" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK74" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO74" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130734186</v>
+        <v>130734182</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>444272</v>
+        <v>443903</v>
       </c>
       <c r="R2" t="n">
-        <v>7053547</v>
+        <v>7053286</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Rikligt med garnlav på flera granar i senvuxen äldre granskog.</t>
+          <t>På gran i äldre granskog.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130734182</v>
+        <v>130734186</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>443903</v>
+        <v>444272</v>
       </c>
       <c r="R3" t="n">
-        <v>7053286</v>
+        <v>7053547</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På gran i äldre granskog.</t>
+          <t>Rikligt med garnlav på flera granar i senvuxen äldre granskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130734193</v>
+        <v>130734153</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,26 +1071,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1098,10 +1102,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>444436</v>
+        <v>443857</v>
       </c>
       <c r="R5" t="n">
-        <v>7053798</v>
+        <v>7053224</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,6 +1140,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Gott om fruktkroppar i stambasen av en stående grov gran med 50 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1153,7 +1162,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka asp.</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1168,12 +1177,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1191,10 +1200,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130734153</v>
+        <v>130734193</v>
       </c>
       <c r="B6" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1202,30 +1211,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1233,10 +1238,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>443857</v>
+        <v>444436</v>
       </c>
       <c r="R6" t="n">
-        <v>7053224</v>
+        <v>7053798</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1271,11 +1276,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Gott om fruktkroppar i stambasen av en stående grov gran med 50 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka asp.</t>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130734145</v>
+        <v>130741302</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1593,24 +1593,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>443967</v>
+        <v>443997</v>
       </c>
       <c r="R9" t="n">
-        <v>7053469</v>
+        <v>7053008</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1647,7 +1639,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1658,56 +1650,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog.</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130734156</v>
+        <v>130741291</v>
       </c>
       <c r="B10" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1715,37 +1677,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>443886</v>
+        <v>443794</v>
       </c>
       <c r="R10" t="n">
-        <v>7053279</v>
+        <v>7053002</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1782,7 +1741,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Gott om fruktkroppar i en granhögstubbe.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1791,51 +1750,25 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130741302</v>
+        <v>130734145</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1864,16 +1797,24 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>443997</v>
+        <v>443967</v>
       </c>
       <c r="R11" t="n">
-        <v>7053008</v>
+        <v>7053469</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1910,7 +1851,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1921,26 +1862,56 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog.</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130741291</v>
+        <v>130734156</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1948,34 +1919,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>443794</v>
+        <v>443886</v>
       </c>
       <c r="R12" t="n">
-        <v>7053002</v>
+        <v>7053279</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2012,7 +1986,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Gott om fruktkroppar i en granhögstubbe.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2021,28 +1995,54 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130734170</v>
+        <v>130741279</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2050,37 +2050,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>444133</v>
+        <v>444007</v>
       </c>
       <c r="R13" t="n">
-        <v>7053693</v>
+        <v>7053457</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2115,60 +2112,39 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130741320</v>
+        <v>130734180</v>
       </c>
       <c r="B14" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2176,34 +2152,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>444326</v>
+        <v>443846</v>
       </c>
       <c r="R14" t="n">
-        <v>7053588</v>
+        <v>7053252</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2238,31 +2217,62 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130734164</v>
+        <v>130734170</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2300,10 +2310,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>444362</v>
+        <v>444133</v>
       </c>
       <c r="R15" t="n">
-        <v>7054079</v>
+        <v>7053693</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2336,11 +2346,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2393,7 +2398,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130734180</v>
+        <v>130734164</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2431,10 +2436,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>443846</v>
+        <v>444362</v>
       </c>
       <c r="R16" t="n">
-        <v>7053252</v>
+        <v>7054079</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2471,7 +2476,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2501,12 +2506,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2524,10 +2529,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130741279</v>
+        <v>130741320</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>89193</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2535,21 +2540,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2559,10 +2564,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444007</v>
+        <v>444326</v>
       </c>
       <c r="R17" t="n">
-        <v>7053457</v>
+        <v>7053588</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2595,11 +2600,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2728,10 +2728,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130741284</v>
+        <v>130734190</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2739,34 +2739,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>443929</v>
+        <v>444347</v>
       </c>
       <c r="R19" t="n">
-        <v>7052944</v>
+        <v>7053668</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2803,7 +2806,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Garnlav på en stående död gran med full längd och ca 10-20 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2812,25 +2815,56 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130734190</v>
+        <v>130734177</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2868,10 +2902,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>444347</v>
+        <v>443938</v>
       </c>
       <c r="R20" t="n">
-        <v>7053668</v>
+        <v>7053186</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2908,7 +2942,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Garnlav på en stående död gran med full längd och ca 10-20 cm i brösthöjdsdiameter.</t>
+          <t>På gran i gammal granskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2926,11 +2960,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
       <c r="AJ20" t="inlineStr">
         <is>
           <t>gran</t>
@@ -2943,12 +2972,12 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3102,10 +3131,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130734177</v>
+        <v>130741284</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3113,37 +3142,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>443938</v>
+        <v>443929</v>
       </c>
       <c r="R22" t="n">
-        <v>7053186</v>
+        <v>7052944</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3180,7 +3206,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På gran i gammal granskog.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3189,54 +3215,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130734162</v>
+        <v>130741314</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3244,37 +3244,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>444375</v>
+        <v>444416</v>
       </c>
       <c r="R23" t="n">
-        <v>7054118</v>
+        <v>7053728</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3315,54 +3308,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130741314</v>
+        <v>130734150</v>
       </c>
       <c r="B24" t="n">
-        <v>91828</v>
+        <v>80349</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3370,30 +3337,41 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>444416</v>
+        <v>444358</v>
       </c>
       <c r="R24" t="n">
-        <v>7053728</v>
+        <v>7054049</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3428,31 +3406,67 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130734165</v>
+        <v>130734162</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3490,10 +3504,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>444343</v>
+        <v>444375</v>
       </c>
       <c r="R25" t="n">
-        <v>7054057</v>
+        <v>7054118</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3526,11 +3540,6 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3583,7 +3592,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130734185</v>
+        <v>130734165</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3621,10 +3630,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>444157</v>
+        <v>444343</v>
       </c>
       <c r="R26" t="n">
-        <v>7053507</v>
+        <v>7054057</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3661,7 +3670,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3714,10 +3723,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130741297</v>
+        <v>130734185</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3725,34 +3734,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>443871</v>
+        <v>444157</v>
       </c>
       <c r="R27" t="n">
-        <v>7052942</v>
+        <v>7053507</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3789,7 +3801,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3798,25 +3810,51 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130741282</v>
+        <v>130741297</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3851,10 +3889,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>443897</v>
+        <v>443871</v>
       </c>
       <c r="R28" t="n">
-        <v>7052981</v>
+        <v>7052942</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3891,7 +3929,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3918,7 +3956,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130741285</v>
+        <v>130741282</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3953,10 +3991,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>443963</v>
+        <v>443897</v>
       </c>
       <c r="R29" t="n">
-        <v>7052972</v>
+        <v>7052981</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4020,10 +4058,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130734150</v>
+        <v>130741285</v>
       </c>
       <c r="B30" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4031,41 +4069,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>444358</v>
+        <v>443963</v>
       </c>
       <c r="R30" t="n">
-        <v>7054049</v>
+        <v>7052972</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4102,7 +4133,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4111,59 +4142,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130741313</v>
+        <v>130734181</v>
       </c>
       <c r="B31" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,30 +4171,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>443985</v>
+        <v>443859</v>
       </c>
       <c r="R31" t="n">
-        <v>7052983</v>
+        <v>7053310</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4229,24 +4236,55 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -4384,10 +4422,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130734181</v>
+        <v>130741313</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4395,37 +4433,30 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>443859</v>
+        <v>443985</v>
       </c>
       <c r="R33" t="n">
-        <v>7053310</v>
+        <v>7052983</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4460,55 +4491,24 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130741289</v>
+        <v>130734174</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4636,34 +4636,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>443999</v>
+        <v>444078</v>
       </c>
       <c r="R35" t="n">
-        <v>7053066</v>
+        <v>7053449</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4700,7 +4703,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Goda mängder garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4709,28 +4712,54 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130741294</v>
+        <v>130734189</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4738,34 +4767,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>443835</v>
+        <v>444342</v>
       </c>
       <c r="R36" t="n">
-        <v>7052933</v>
+        <v>7053646</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4802,7 +4834,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Relativt rikligt med garnlavsbålar på gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4811,25 +4843,56 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130734174</v>
+        <v>130734176</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4867,10 +4930,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>444078</v>
+        <v>444149</v>
       </c>
       <c r="R37" t="n">
-        <v>7053449</v>
+        <v>7053319</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4907,7 +4970,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Goda mängder garnlav på flera granar.</t>
+          <t>På gran i gles äldre granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4960,10 +5023,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130734176</v>
+        <v>130741289</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4971,37 +5034,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>444149</v>
+        <v>443999</v>
       </c>
       <c r="R38" t="n">
-        <v>7053319</v>
+        <v>7053066</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5038,7 +5098,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>På gran i gles äldre granskog.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5047,54 +5107,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130734189</v>
+        <v>130741294</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5102,37 +5136,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>444342</v>
+        <v>443835</v>
       </c>
       <c r="R39" t="n">
-        <v>7053646</v>
+        <v>7052933</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5169,7 +5200,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlavsbålar på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5178,49 +5209,18 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -5324,10 +5324,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130741292</v>
+        <v>130734173</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5335,34 +5335,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>443750</v>
+        <v>444046</v>
       </c>
       <c r="R41" t="n">
-        <v>7052993</v>
+        <v>7053496</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5399,7 +5402,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5408,25 +5411,51 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130741301</v>
+        <v>130741292</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -5461,10 +5490,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>443990</v>
+        <v>443750</v>
       </c>
       <c r="R42" t="n">
-        <v>7052974</v>
+        <v>7052993</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5501,7 +5530,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5528,7 +5557,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130741295</v>
+        <v>130741301</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5563,10 +5592,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>443845</v>
+        <v>443990</v>
       </c>
       <c r="R43" t="n">
-        <v>7052918</v>
+        <v>7052974</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5603,7 +5632,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5630,10 +5659,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130734173</v>
+        <v>130741295</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5641,37 +5670,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>444046</v>
+        <v>443845</v>
       </c>
       <c r="R44" t="n">
-        <v>7053496</v>
+        <v>7052918</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5708,7 +5734,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5717,44 +5743,18 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130741281</v>
+        <v>130734147</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5925,16 +5925,24 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>443901</v>
+        <v>443820</v>
       </c>
       <c r="R46" t="n">
-        <v>7053024</v>
+        <v>7053223</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5971,7 +5979,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska, i god mängd längs minst 6 meter på en granstam inom en avverkningsanmäld yta och utanför planerad naturhänsyn.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5982,23 +5990,53 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Flerakiktad äldre granskog med björk och inslag av asp. Stor stamdiameterspridning med naturvärdes-granar med över 50 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130734147</v>
+        <v>130741281</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -6027,24 +6065,16 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>443820</v>
+        <v>443901</v>
       </c>
       <c r="R47" t="n">
-        <v>7053223</v>
+        <v>7053024</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6081,7 +6111,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, i god mängd längs minst 6 meter på en granstam inom en avverkningsanmäld yta och utanför planerad naturhänsyn.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6092,46 +6122,16 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>Flerakiktad äldre granskog med björk och inslag av asp. Stor stamdiameterspridning med naturvärdes-granar med över 50 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130734146</v>
+        <v>130741288</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -6298,24 +6298,16 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>443949</v>
+        <v>443996</v>
       </c>
       <c r="R49" t="n">
-        <v>7053197</v>
+        <v>7053048</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6352,7 +6344,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6363,48 +6355,23 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130734148</v>
+        <v>130741299</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -6433,24 +6400,16 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>444153</v>
+        <v>443972</v>
       </c>
       <c r="R50" t="n">
-        <v>7053496</v>
+        <v>7052967</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6487,7 +6446,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6498,48 +6457,23 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130741288</v>
+        <v>130734148</v>
       </c>
       <c r="B51" t="n">
         <v>57884</v>
@@ -6568,16 +6502,24 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>443996</v>
+        <v>444153</v>
       </c>
       <c r="R51" t="n">
-        <v>7053048</v>
+        <v>7053496</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6614,7 +6556,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre och ev. något färskt, på stambasen av en gran. Medelhögt till högt livsmiljövärde på fyndplatsen baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6625,23 +6567,48 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130741299</v>
+        <v>130734146</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -6670,16 +6637,24 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>443972</v>
+        <v>443949</v>
       </c>
       <c r="R52" t="n">
-        <v>7052967</v>
+        <v>7053197</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6716,7 +6691,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gammal gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6727,26 +6702,51 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130741293</v>
+        <v>130734167</v>
       </c>
       <c r="B53" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6754,34 +6754,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>443827</v>
+        <v>444319</v>
       </c>
       <c r="R53" t="n">
-        <v>7052932</v>
+        <v>7054017</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6818,7 +6821,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6827,18 +6830,44 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
@@ -6947,10 +6976,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130734167</v>
+        <v>130741311</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6958,37 +6987,30 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444319</v>
+        <v>443991</v>
       </c>
       <c r="R55" t="n">
-        <v>7054017</v>
+        <v>7052955</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7023,65 +7045,34 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741311</v>
+        <v>130741293</v>
       </c>
       <c r="B56" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7089,19 +7080,23 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7109,10 +7104,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>443991</v>
+        <v>443827</v>
       </c>
       <c r="R56" t="n">
-        <v>7052955</v>
+        <v>7052932</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7145,6 +7140,11 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7171,7 +7171,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130741309</v>
+        <v>130741310</v>
       </c>
       <c r="B57" t="n">
         <v>91828</v>
@@ -7202,10 +7202,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>443836</v>
+        <v>443891</v>
       </c>
       <c r="R57" t="n">
-        <v>7052967</v>
+        <v>7053029</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130741287</v>
+        <v>130741309</v>
       </c>
       <c r="B58" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7275,23 +7275,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7299,10 +7295,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444000</v>
+        <v>443836</v>
       </c>
       <c r="R58" t="n">
-        <v>7053028</v>
+        <v>7052967</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7335,11 +7331,6 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7366,10 +7357,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130741298</v>
+        <v>130734171</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7377,34 +7368,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>443946</v>
+        <v>443981</v>
       </c>
       <c r="R59" t="n">
-        <v>7052921</v>
+        <v>7053488</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7441,7 +7435,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7450,28 +7444,54 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
+      </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130734171</v>
+        <v>130741287</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7479,37 +7499,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>443981</v>
+        <v>444000</v>
       </c>
       <c r="R60" t="n">
-        <v>7053488</v>
+        <v>7053028</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7546,7 +7563,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7555,54 +7572,28 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ60" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130741310</v>
+        <v>130741298</v>
       </c>
       <c r="B61" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7610,19 +7601,23 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7630,10 +7625,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>443891</v>
+        <v>443946</v>
       </c>
       <c r="R61" t="n">
-        <v>7053029</v>
+        <v>7052921</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7666,6 +7661,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7692,10 +7692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130734179</v>
+        <v>130741283</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7703,37 +7703,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>443901</v>
+        <v>443927</v>
       </c>
       <c r="R62" t="n">
-        <v>7053212</v>
+        <v>7052967</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7768,60 +7765,39 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130734172</v>
+        <v>130741308</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7829,37 +7805,30 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>444002</v>
+        <v>444020</v>
       </c>
       <c r="R63" t="n">
-        <v>7053503</v>
+        <v>7053458</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7900,54 +7869,28 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130741308</v>
+        <v>130734155</v>
       </c>
       <c r="B64" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7955,30 +7898,41 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>444020</v>
+        <v>443861</v>
       </c>
       <c r="R64" t="n">
-        <v>7053458</v>
+        <v>7053306</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8013,34 +7967,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
+        </is>
+      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734155</v>
+        <v>130734172</v>
       </c>
       <c r="B65" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8048,30 +8033,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8079,10 +8060,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>443861</v>
+        <v>444002</v>
       </c>
       <c r="R65" t="n">
-        <v>7053306</v>
+        <v>7053503</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8117,11 +8098,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8149,12 +8125,12 @@
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8172,10 +8148,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130741283</v>
+        <v>130734179</v>
       </c>
       <c r="B66" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8183,34 +8159,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443927</v>
+        <v>443901</v>
       </c>
       <c r="R66" t="n">
-        <v>7052967</v>
+        <v>7053212</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8245,36 +8224,57 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130734191</v>
+        <v>130734184</v>
       </c>
       <c r="B67" t="n">
         <v>79243</v>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>444407</v>
+        <v>444032</v>
       </c>
       <c r="R67" t="n">
-        <v>7053726</v>
+        <v>7053290</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på gran.</t>
+          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8368,11 +8368,6 @@
       <c r="AH67" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -8410,7 +8405,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130734168</v>
+        <v>130734188</v>
       </c>
       <c r="B68" t="n">
         <v>79243</v>
@@ -8448,10 +8443,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>444293</v>
+        <v>444304</v>
       </c>
       <c r="R68" t="n">
-        <v>7054016</v>
+        <v>7053564</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8484,6 +8479,11 @@
       <c r="AA68" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8536,7 +8536,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130734188</v>
+        <v>130734191</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>444304</v>
+        <v>444407</v>
       </c>
       <c r="R69" t="n">
-        <v>7053564</v>
+        <v>7053726</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
+          <t>Relativt rikligt med garnlav på gran.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8630,6 +8630,11 @@
       <c r="AH69" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -8667,7 +8672,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130734184</v>
+        <v>130734168</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8705,10 +8710,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>444032</v>
+        <v>444293</v>
       </c>
       <c r="R70" t="n">
-        <v>7053290</v>
+        <v>7054016</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8741,11 +8746,6 @@
       <c r="AA70" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8929,10 +8929,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130734151</v>
+        <v>130734183</v>
       </c>
       <c r="B72" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8940,21 +8940,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8967,10 +8967,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>444218</v>
+        <v>443986</v>
       </c>
       <c r="R72" t="n">
-        <v>7053557</v>
+        <v>7053263</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Växer på en levande skadad sälg.</t>
+          <t>På gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9027,27 +9027,27 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
+          <t>Grandominerad skog med björk och inslag av asp.</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130734183</v>
+        <v>130734151</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9076,21 +9076,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9103,10 +9103,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>443986</v>
+        <v>444218</v>
       </c>
       <c r="R73" t="n">
-        <v>7053263</v>
+        <v>7053557</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>På gran i gles senvuxen granskog.</t>
+          <t>Växer på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9163,27 +9163,27 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>Grandominerad skog med björk och inslag av asp.</t>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
         </is>
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130734153</v>
+        <v>130734193</v>
       </c>
       <c r="B5" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,30 +1071,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1102,10 +1098,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>443857</v>
+        <v>444436</v>
       </c>
       <c r="R5" t="n">
-        <v>7053224</v>
+        <v>7053798</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,11 +1136,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gott om fruktkroppar i stambasen av en stående grov gran med 50 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1162,7 +1153,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka asp.</t>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1177,12 +1168,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1200,10 +1191,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130734193</v>
+        <v>130734153</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1211,26 +1202,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1238,10 +1233,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>444436</v>
+        <v>443857</v>
       </c>
       <c r="R6" t="n">
-        <v>7053798</v>
+        <v>7053224</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1276,6 +1271,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Gott om fruktkroppar i stambasen av en stående grov gran med 50 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka asp.</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130741279</v>
+        <v>130741320</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>89193</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2050,21 +2050,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>444007</v>
+        <v>444326</v>
       </c>
       <c r="R13" t="n">
-        <v>7053457</v>
+        <v>7053588</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2110,11 +2110,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2529,10 +2524,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130741320</v>
+        <v>130741279</v>
       </c>
       <c r="B17" t="n">
-        <v>89193</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2540,21 +2535,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2564,10 +2559,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444326</v>
+        <v>444007</v>
       </c>
       <c r="R17" t="n">
-        <v>7053588</v>
+        <v>7053457</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2600,6 +2595,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2728,10 +2728,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130734190</v>
+        <v>130741284</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2739,37 +2739,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>444347</v>
+        <v>443929</v>
       </c>
       <c r="R19" t="n">
-        <v>7053668</v>
+        <v>7052944</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2806,7 +2803,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Garnlav på en stående död gran med full längd och ca 10-20 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2815,56 +2812,25 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130734177</v>
+        <v>130734190</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2902,10 +2868,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>443938</v>
+        <v>444347</v>
       </c>
       <c r="R20" t="n">
-        <v>7053186</v>
+        <v>7053668</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2942,7 +2908,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På gran i gammal granskog.</t>
+          <t>Garnlav på en stående död gran med full längd och ca 10-20 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2960,6 +2926,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
       <c r="AJ20" t="inlineStr">
         <is>
           <t>gran</t>
@@ -2972,12 +2943,12 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2995,7 +2966,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130734192</v>
+        <v>130734177</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -3033,10 +3004,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>444423</v>
+        <v>443938</v>
       </c>
       <c r="R21" t="n">
-        <v>7053773</v>
+        <v>7053186</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3073,7 +3044,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Måttligt till rikligt med garnlavsbålar på flera granar.</t>
+          <t>På gran i gammal granskog.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3089,11 +3060,6 @@
       <c r="AH21" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -3131,10 +3097,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130741284</v>
+        <v>130734192</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3142,34 +3108,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>443929</v>
+        <v>444423</v>
       </c>
       <c r="R22" t="n">
-        <v>7052944</v>
+        <v>7053773</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3206,7 +3175,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Måttligt till rikligt med garnlavsbålar på flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3215,28 +3184,59 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130741314</v>
+        <v>130734162</v>
       </c>
       <c r="B23" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3244,30 +3244,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>444416</v>
+        <v>444375</v>
       </c>
       <c r="R23" t="n">
-        <v>7053728</v>
+        <v>7054118</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3308,28 +3315,54 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130734150</v>
+        <v>130734165</v>
       </c>
       <c r="B24" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3337,30 +3370,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3368,10 +3397,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>444358</v>
+        <v>444343</v>
       </c>
       <c r="R24" t="n">
-        <v>7054049</v>
+        <v>7054057</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3408,7 +3437,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3426,29 +3455,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3466,7 +3490,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130734162</v>
+        <v>130734185</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3504,10 +3528,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>444375</v>
+        <v>444157</v>
       </c>
       <c r="R25" t="n">
-        <v>7054118</v>
+        <v>7053507</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3540,6 +3564,11 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3592,10 +3621,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130734165</v>
+        <v>130741297</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3603,37 +3632,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>444343</v>
+        <v>443871</v>
       </c>
       <c r="R26" t="n">
-        <v>7054057</v>
+        <v>7052942</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3670,7 +3696,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3679,54 +3705,28 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130734185</v>
+        <v>130741282</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3734,37 +3734,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>444157</v>
+        <v>443897</v>
       </c>
       <c r="R27" t="n">
-        <v>7053507</v>
+        <v>7052981</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3810,51 +3807,25 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130741297</v>
+        <v>130741285</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3889,10 +3860,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>443871</v>
+        <v>443963</v>
       </c>
       <c r="R28" t="n">
-        <v>7052942</v>
+        <v>7052972</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3929,7 +3900,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3956,10 +3927,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130741282</v>
+        <v>130741314</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3967,23 +3938,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3991,10 +3958,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>443897</v>
+        <v>444416</v>
       </c>
       <c r="R29" t="n">
-        <v>7052981</v>
+        <v>7053728</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4027,11 +3994,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4058,10 +4020,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130741285</v>
+        <v>130734150</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4069,34 +4031,41 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>443963</v>
+        <v>444358</v>
       </c>
       <c r="R30" t="n">
-        <v>7052972</v>
+        <v>7054049</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4133,7 +4102,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4142,28 +4111,59 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130734181</v>
+        <v>130741290</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,37 +4171,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>443859</v>
+        <v>444005</v>
       </c>
       <c r="R31" t="n">
-        <v>7053310</v>
+        <v>7053074</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4238,7 +4243,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Bohål ca 3 m upp i granhögstubbe</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4247,54 +4252,28 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130734178</v>
+        <v>130741313</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4302,37 +4281,30 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>443988</v>
+        <v>443985</v>
       </c>
       <c r="R32" t="n">
-        <v>7053189</v>
+        <v>7052983</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4367,65 +4339,34 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>På gammal gran i luckig äldre granskog.</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130741313</v>
+        <v>130734181</v>
       </c>
       <c r="B33" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4433,30 +4374,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>443985</v>
+        <v>443859</v>
       </c>
       <c r="R33" t="n">
-        <v>7052983</v>
+        <v>7053310</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4491,34 +4439,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130741290</v>
+        <v>130734178</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4526,42 +4505,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>444005</v>
+        <v>443988</v>
       </c>
       <c r="R34" t="n">
-        <v>7053074</v>
+        <v>7053189</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4598,7 +4572,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Bohål ca 3 m upp i granhögstubbe</t>
+          <t>På gammal gran i luckig äldre granskog.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4607,18 +4581,44 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130741318</v>
+        <v>130741292</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5238,21 +5238,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>444153</v>
+        <v>443750</v>
       </c>
       <c r="R40" t="n">
-        <v>7053487</v>
+        <v>7052993</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5298,6 +5298,11 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5324,10 +5329,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130734173</v>
+        <v>130741301</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5335,37 +5340,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>444046</v>
+        <v>443990</v>
       </c>
       <c r="R41" t="n">
-        <v>7053496</v>
+        <v>7052974</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5402,7 +5404,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5411,51 +5413,25 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130741292</v>
+        <v>130741295</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -5490,10 +5466,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>443750</v>
+        <v>443845</v>
       </c>
       <c r="R42" t="n">
-        <v>7052993</v>
+        <v>7052918</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5530,7 +5506,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5557,7 +5533,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130741301</v>
+        <v>130734144</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5586,16 +5562,24 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>443990</v>
+        <v>444016</v>
       </c>
       <c r="R43" t="n">
-        <v>7052974</v>
+        <v>7053579</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5632,7 +5616,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5643,26 +5627,51 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130741295</v>
+        <v>130741318</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5670,21 +5679,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5694,10 +5703,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>443845</v>
+        <v>444153</v>
       </c>
       <c r="R44" t="n">
-        <v>7052918</v>
+        <v>7053487</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5730,11 +5739,6 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5761,10 +5765,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130734144</v>
+        <v>130734173</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5772,31 +5776,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5804,10 +5803,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>444016</v>
+        <v>444046</v>
       </c>
       <c r="R45" t="n">
-        <v>7053579</v>
+        <v>7053496</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5844,7 +5843,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på stambasen av en gran.</t>
+          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5853,6 +5852,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5873,12 +5873,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130734167</v>
+        <v>130741311</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6754,37 +6754,30 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>444319</v>
+        <v>443991</v>
       </c>
       <c r="R53" t="n">
-        <v>7054017</v>
+        <v>7052955</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6819,62 +6812,31 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130741316</v>
+        <v>130734167</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6903,16 +6865,19 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444000</v>
+        <v>444319</v>
       </c>
       <c r="R54" t="n">
-        <v>7053558</v>
+        <v>7054017</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6949,7 +6914,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6958,28 +6923,54 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741311</v>
+        <v>130741316</v>
       </c>
       <c r="B55" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6987,19 +6978,23 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7007,10 +7002,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>443991</v>
+        <v>444000</v>
       </c>
       <c r="R55" t="n">
-        <v>7052955</v>
+        <v>7053558</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7043,6 +7038,11 @@
       <c r="AA55" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7692,10 +7692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130741283</v>
+        <v>130741308</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7703,23 +7703,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7727,10 +7723,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>443927</v>
+        <v>444020</v>
       </c>
       <c r="R62" t="n">
-        <v>7052967</v>
+        <v>7053458</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7763,11 +7759,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7794,10 +7785,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130741308</v>
+        <v>130741283</v>
       </c>
       <c r="B63" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7805,19 +7796,23 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7825,10 +7820,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>444020</v>
+        <v>443927</v>
       </c>
       <c r="R63" t="n">
-        <v>7053458</v>
+        <v>7052967</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7861,6 +7856,11 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">

--- a/artfynd/A 61382-2025 artfynd.xlsx
+++ b/artfynd/A 61382-2025 artfynd.xlsx
@@ -2136,10 +2136,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130734180</v>
+        <v>130741279</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2147,37 +2147,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>443846</v>
+        <v>444007</v>
       </c>
       <c r="R14" t="n">
-        <v>7053252</v>
+        <v>7053457</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2214,7 +2211,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2223,51 +2220,25 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130734170</v>
+        <v>130734180</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2305,10 +2276,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>444133</v>
+        <v>443846</v>
       </c>
       <c r="R15" t="n">
-        <v>7053693</v>
+        <v>7053252</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2343,6 +2314,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Växer på grenar av en stående död gran med full längd (bhd ca 30 cm).</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2370,12 +2346,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2393,7 +2369,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130734164</v>
+        <v>130734170</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2431,10 +2407,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>444362</v>
+        <v>444133</v>
       </c>
       <c r="R16" t="n">
-        <v>7054079</v>
+        <v>7053693</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,11 +2443,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2524,10 +2495,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130741279</v>
+        <v>130734164</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2535,34 +2506,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>444007</v>
+        <v>444362</v>
       </c>
       <c r="R17" t="n">
-        <v>7053457</v>
+        <v>7054079</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2599,7 +2573,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På gamla granar.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2608,18 +2582,44 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130734162</v>
+        <v>130741314</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3244,37 +3244,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>444375</v>
+        <v>444416</v>
       </c>
       <c r="R23" t="n">
-        <v>7054118</v>
+        <v>7053728</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3315,54 +3308,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130734165</v>
+        <v>130734150</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3370,26 +3337,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3397,10 +3368,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>444343</v>
+        <v>444358</v>
       </c>
       <c r="R24" t="n">
-        <v>7054057</v>
+        <v>7054049</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3437,7 +3408,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3455,24 +3426,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
+        </is>
+      </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3490,10 +3466,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130734185</v>
+        <v>130741297</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3501,37 +3477,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>444157</v>
+        <v>443871</v>
       </c>
       <c r="R25" t="n">
-        <v>7053507</v>
+        <v>7052942</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3568,7 +3541,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3577,51 +3550,25 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130741297</v>
+        <v>130741282</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3656,10 +3603,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>443871</v>
+        <v>443897</v>
       </c>
       <c r="R26" t="n">
-        <v>7052942</v>
+        <v>7052981</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3696,7 +3643,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3723,7 +3670,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130741282</v>
+        <v>130741285</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3758,10 +3705,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>443897</v>
+        <v>443963</v>
       </c>
       <c r="R27" t="n">
-        <v>7052981</v>
+        <v>7052972</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3825,10 +3772,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130741285</v>
+        <v>130734162</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3836,34 +3783,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>443963</v>
+        <v>444375</v>
       </c>
       <c r="R28" t="n">
-        <v>7052972</v>
+        <v>7054118</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3898,39 +3848,60 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130741314</v>
+        <v>130734165</v>
       </c>
       <c r="B29" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3938,30 +3909,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>444416</v>
+        <v>444343</v>
       </c>
       <c r="R29" t="n">
-        <v>7053728</v>
+        <v>7054057</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3996,34 +3974,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130734150</v>
+        <v>130734185</v>
       </c>
       <c r="B30" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4031,30 +4040,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4062,10 +4067,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>444358</v>
+        <v>444157</v>
       </c>
       <c r="R30" t="n">
-        <v>7054049</v>
+        <v>7053507</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4102,7 +4107,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gott om bålar av skrovellav på en hyfsat grov sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4120,29 +4125,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre grandominerad skog med björk och inslag av sälg.</t>
-        </is>
-      </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130741290</v>
+        <v>130741313</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,42 +4171,30 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>444005</v>
+        <v>443985</v>
       </c>
       <c r="R31" t="n">
-        <v>7053074</v>
+        <v>7052983</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4239,11 +4227,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Bohål ca 3 m upp i granhögstubbe</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4270,10 +4253,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130741313</v>
+        <v>130741290</v>
       </c>
       <c r="B32" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4281,30 +4264,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>443985</v>
+        <v>444005</v>
       </c>
       <c r="R32" t="n">
-        <v>7052983</v>
+        <v>7053074</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4337,6 +4332,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Bohål ca 3 m upp i granhögstubbe</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -5227,10 +5227,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130741292</v>
+        <v>130741318</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5238,21 +5238,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>443750</v>
+        <v>444153</v>
       </c>
       <c r="R40" t="n">
-        <v>7052993</v>
+        <v>7053487</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5298,11 +5298,6 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5329,10 +5324,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130741301</v>
+        <v>130734173</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5340,34 +5335,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>443990</v>
+        <v>444046</v>
       </c>
       <c r="R41" t="n">
-        <v>7052974</v>
+        <v>7053496</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5404,7 +5402,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5413,25 +5411,51 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130741295</v>
+        <v>130741292</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -5466,10 +5490,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>443845</v>
+        <v>443750</v>
       </c>
       <c r="R42" t="n">
-        <v>7052918</v>
+        <v>7052993</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5506,7 +5530,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5533,7 +5557,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130734144</v>
+        <v>130741301</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5562,24 +5586,16 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>444016</v>
+        <v>443990</v>
       </c>
       <c r="R43" t="n">
-        <v>7053579</v>
+        <v>7052974</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5616,7 +5632,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på stambasen av en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5627,51 +5643,26 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130741318</v>
+        <v>130741295</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5679,21 +5670,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5703,10 +5694,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>444153</v>
+        <v>443845</v>
       </c>
       <c r="R44" t="n">
-        <v>7053487</v>
+        <v>7052918</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5739,6 +5730,11 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5765,10 +5761,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130734173</v>
+        <v>130734144</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5776,26 +5772,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5803,10 +5804,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>444046</v>
+        <v>444016</v>
       </c>
       <c r="R45" t="n">
-        <v>7053496</v>
+        <v>7053579</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5843,7 +5844,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På grenar av en stående död gran med full längd och 36 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack, färska, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5852,7 +5853,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5873,12 +5873,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130734147</v>
+        <v>130741281</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5925,24 +5925,16 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>443820</v>
+        <v>443901</v>
       </c>
       <c r="R46" t="n">
-        <v>7053223</v>
+        <v>7053024</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5979,7 +5971,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, färska, i god mängd längs minst 6 meter på en granstam inom en avverkningsanmäld yta och utanför planerad naturhänsyn.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5990,53 +5982,23 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>Flerakiktad äldre granskog med björk och inslag av asp. Stor stamdiameterspridning med naturvärdes-granar med över 50 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130741281</v>
+        <v>130734147</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -6065,16 +6027,24 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>443901</v>
+        <v>443820</v>
       </c>
       <c r="R47" t="n">
-        <v>7053024</v>
+        <v>7053223</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6111,7 +6081,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska, i god mängd längs minst 6 meter på en granstam inom en avverkningsanmäld yta och utanför planerad naturhänsyn.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6122,16 +6092,46 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Flerakiktad äldre granskog med björk och inslag av asp. Stor stamdiameterspridning med naturvärdes-granar med över 50 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130741311</v>
+        <v>130734167</v>
       </c>
       <c r="B53" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6754,30 +6754,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>443991</v>
+        <v>444319</v>
       </c>
       <c r="R53" t="n">
-        <v>7052955</v>
+        <v>7054017</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6812,31 +6819,62 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130734167</v>
+        <v>130741316</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6865,19 +6903,16 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444319</v>
+        <v>444000</v>
       </c>
       <c r="R54" t="n">
-        <v>7054017</v>
+        <v>7053558</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6914,7 +6949,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6923,54 +6958,28 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130741316</v>
+        <v>130741293</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6978,21 +6987,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7002,10 +7011,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444000</v>
+        <v>443827</v>
       </c>
       <c r="R55" t="n">
-        <v>7053558</v>
+        <v>7052932</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7042,7 +7051,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7069,10 +7078,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130741293</v>
+        <v>130741311</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7080,23 +7089,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7104,10 +7109,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>443827</v>
+        <v>443991</v>
       </c>
       <c r="R56" t="n">
-        <v>7052932</v>
+        <v>7052955</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7140,11 +7145,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7264,10 +7264,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130741309</v>
+        <v>130734171</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7275,30 +7275,37 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>443836</v>
+        <v>443981</v>
       </c>
       <c r="R58" t="n">
-        <v>7052967</v>
+        <v>7053488</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7333,34 +7340,65 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130734171</v>
+        <v>130741287</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7368,37 +7406,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>443981</v>
+        <v>444000</v>
       </c>
       <c r="R59" t="n">
-        <v>7053488</v>
+        <v>7053028</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7435,7 +7470,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7444,51 +7479,25 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130741287</v>
+        <v>130741298</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -7523,10 +7532,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444000</v>
+        <v>443946</v>
       </c>
       <c r="R60" t="n">
-        <v>7053028</v>
+        <v>7052921</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7590,10 +7599,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130741298</v>
+        <v>130741309</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7601,23 +7610,19 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7625,10 +7630,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>443946</v>
+        <v>443836</v>
       </c>
       <c r="R61" t="n">
-        <v>7052921</v>
+        <v>7052967</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7661,11 +7666,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7887,10 +7887,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130734155</v>
+        <v>130734172</v>
       </c>
       <c r="B64" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7898,30 +7898,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -7929,10 +7925,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>443861</v>
+        <v>444002</v>
       </c>
       <c r="R64" t="n">
-        <v>7053306</v>
+        <v>7053503</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7967,11 +7963,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
@@ -7999,12 +7990,12 @@
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8022,7 +8013,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130734172</v>
+        <v>130734179</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -8060,10 +8051,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>444002</v>
+        <v>443901</v>
       </c>
       <c r="R65" t="n">
-        <v>7053503</v>
+        <v>7053212</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8148,10 +8139,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130734179</v>
+        <v>130734155</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8159,26 +8150,30 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8186,10 +8181,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>443901</v>
+        <v>443861</v>
       </c>
       <c r="R66" t="n">
-        <v>7053212</v>
+        <v>7053306</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8224,6 +8219,11 @@
           <t>2026-01-16</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i stambasen av en levande relativt grov gran.</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -8251,12 +8251,12 @@
       </c>
       <c r="AM66" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -8274,10 +8274,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130734184</v>
+        <v>130734151</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8285,21 +8285,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>444032</v>
+        <v>444218</v>
       </c>
       <c r="R67" t="n">
-        <v>7053290</v>
+        <v>7053557</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
+          <t>Växer på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8370,24 +8370,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
+        </is>
+      </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8405,10 +8410,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130734188</v>
+        <v>130741280</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8416,37 +8421,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Henrikmyren, Jmt</t>
+          <t>nästsjön, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>444304</v>
+        <v>444040</v>
       </c>
       <c r="R68" t="n">
-        <v>7053564</v>
+        <v>7053449</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8483,7 +8485,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8492,51 +8494,25 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130734191</v>
+        <v>130734184</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -8574,10 +8550,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>444407</v>
+        <v>444032</v>
       </c>
       <c r="R69" t="n">
-        <v>7053726</v>
+        <v>7053290</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8614,7 +8590,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på gran.</t>
+          <t>Garnlav på en tydligt gammal gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8630,11 +8606,6 @@
       <c r="AH69" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -8672,7 +8643,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130734168</v>
+        <v>130734188</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8710,10 +8681,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>444293</v>
+        <v>444304</v>
       </c>
       <c r="R70" t="n">
-        <v>7054016</v>
+        <v>7053564</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8746,6 +8717,11 @@
       <c r="AA70" t="inlineStr">
         <is>
           <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Växer på en tydligt gammal gran i relativt senvuxen gles granskog.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8798,7 +8774,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>130734169</v>
+        <v>130734191</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8836,10 +8812,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>444160</v>
+        <v>444407</v>
       </c>
       <c r="R71" t="n">
-        <v>7053858</v>
+        <v>7053726</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8876,7 +8852,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Relativt rikligt med garnlav på gran.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8892,6 +8868,11 @@
       <c r="AH71" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad grandominerad skog med björk och inslag av sälg.</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr">
@@ -8929,7 +8910,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130734183</v>
+        <v>130734168</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8967,10 +8948,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>443986</v>
+        <v>444293</v>
       </c>
       <c r="R72" t="n">
-        <v>7053263</v>
+        <v>7054016</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9005,11 +8986,6 @@
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>På gran i gles senvuxen granskog.</t>
-        </is>
-      </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
@@ -9023,11 +8999,6 @@
       <c r="AH72" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>Grandominerad skog med björk och inslag av asp.</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -9065,10 +9036,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130734151</v>
+        <v>130734169</v>
       </c>
       <c r="B73" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9076,21 +9047,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9103,10 +9074,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>444218</v>
+        <v>444160</v>
       </c>
       <c r="R73" t="n">
-        <v>7053557</v>
+        <v>7053858</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9143,7 +9114,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Växer på en levande skadad sälg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9161,29 +9132,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI73" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med inslag av björk och enstaka sälg.</t>
-        </is>
-      </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -9201,10 +9167,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130741280</v>
+        <v>130734183</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9212,34 +9178,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>nästsjön, Jmt</t>
+          <t>Henrikmyren, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>444040</v>
+        <v>443986</v>
       </c>
       <c r="R74" t="n">
-        <v>7053449</v>
+        <v>7053263</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9276,7 +9245,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran i gles senvuxen granskog.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9285,18 +9254,49 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>Grandominerad skog med björk och inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
